--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -729,6 +729,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,15 +766,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,42 +1121,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1199,57 +1199,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="78" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="69" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1274,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1299,7 +1299,9 @@
       <c r="B6" s="55">
         <v>44202</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55">
+        <v>44203</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
       </c>
@@ -1343,7 +1345,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1357,7 +1359,9 @@
       <c r="B7" s="55">
         <v>44202</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55">
+        <v>44203</v>
+      </c>
       <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1411,7 +1415,9 @@
       <c r="B8" s="55">
         <v>44202</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="55">
+        <v>44203</v>
+      </c>
       <c r="D8" s="56" t="s">
         <v>45</v>
       </c>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1463,7 +1469,9 @@
       <c r="B9" s="55">
         <v>44202</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="55">
+        <v>44203</v>
+      </c>
       <c r="D9" s="56" t="s">
         <v>45</v>
       </c>
@@ -1509,7 +1517,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1521,7 +1529,9 @@
       <c r="B10" s="55">
         <v>44202</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="55">
+        <v>44203</v>
+      </c>
       <c r="D10" s="56" t="s">
         <v>45</v>
       </c>
@@ -1561,7 +1571,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1573,7 +1583,9 @@
       <c r="B11" s="55">
         <v>44202</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="55">
+        <v>44203</v>
+      </c>
       <c r="D11" s="56" t="s">
         <v>45</v>
       </c>
@@ -1613,7 +1625,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1637,9 @@
       <c r="B12" s="55">
         <v>44202</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="55">
+        <v>44203</v>
+      </c>
       <c r="D12" s="56" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1679,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1679,7 +1693,9 @@
       <c r="B13" s="55">
         <v>44202</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="55">
+        <v>44203</v>
+      </c>
       <c r="D13" s="56" t="s">
         <v>45</v>
       </c>
@@ -1721,7 +1737,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1749,7 +1765,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1793,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1821,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2939,11 +2955,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2957,6 +2968,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2967,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2999,42 +3015,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -3077,57 +3093,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="78" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="69" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3152,23 +3168,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3177,7 +3193,9 @@
       <c r="B6" s="55">
         <v>44202</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55">
+        <v>44203</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>47</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3251,7 +3269,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3279,7 +3297,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3307,7 +3325,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3353,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3363,7 +3381,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3409,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3421,7 +3439,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3449,7 +3467,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3495,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3505,7 +3523,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4639,13 +4657,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4657,6 +4668,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4699,43 +4717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4780,42 +4798,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="69" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="82" t="s">
@@ -4823,15 +4841,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="69" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4856,24 +4874,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="83"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4899,7 +4917,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="66" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4930,7 +4948,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="67"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4959,7 +4977,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="67"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4988,7 +5006,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="67"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -5017,7 +5035,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="67"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5046,7 +5064,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5075,7 +5093,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5106,7 +5124,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5135,7 +5153,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5164,7 +5182,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5193,7 +5211,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="68"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7774,6 +7792,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7784,16 +7812,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -729,6 +729,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,36 +766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,42 +1121,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1199,57 +1199,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="75" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1274,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="76" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2955,6 +2955,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2968,11 +2973,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3015,42 +3015,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -3093,57 +3093,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="75" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3168,23 +3168,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3269,7 +3269,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="76" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3439,7 +3439,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4657,6 +4657,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4668,13 +4675,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4685,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4717,43 +4717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4798,42 +4798,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="66" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="82" t="s">
@@ -4841,15 +4841,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4874,50 +4874,80 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="83"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C6" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="57">
+        <v>866192037821855</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="66" t="s">
+      <c r="V6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4928,27 +4958,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C7" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183035890255</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="I7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="61"/>
+      <c r="O7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="67"/>
+      <c r="V7" s="77"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4957,27 +5017,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C8" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183038022328</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="J8" s="58"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="67"/>
+      <c r="V8" s="77"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4986,27 +5074,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C9" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="57">
+        <v>868183034788633</v>
+      </c>
       <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="58" t="s">
+        <v>93</v>
+      </c>
       <c r="J9" s="58"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="58"/>
+      <c r="K9" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>77</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="61"/>
+      <c r="O9" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="67"/>
+      <c r="V9" s="77"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -5015,27 +5129,59 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="B10" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C10" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="57">
+        <v>868183034790084</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="77"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5044,27 +5190,53 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C11" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="57">
+        <v>868183033802260</v>
+      </c>
       <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="58" t="s">
+        <v>92</v>
+      </c>
       <c r="J11" s="58"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="56"/>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="77"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5073,27 +5245,53 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
+      <c r="B12" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C12" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="57">
+        <v>868183035874788</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="J12" s="58"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="61"/>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="66" t="s">
+      <c r="V12" s="76" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5104,27 +5302,53 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="58"/>
+      <c r="B13" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C13" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="57">
+        <v>868183035851117</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="67"/>
+      <c r="V13" s="77"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5133,27 +5357,55 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="55">
+        <v>44202</v>
+      </c>
+      <c r="C14" s="55">
+        <v>44203</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="57">
+        <v>868183035921563</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>77</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="O14" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="67"/>
+      <c r="V14" s="77"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5182,7 +5434,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="77"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5211,7 +5463,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="68"/>
+      <c r="V16" s="78"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5330,7 +5582,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,7 +6051,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,7 +6083,7 @@
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5863,7 +6115,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6130,7 +6382,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6194,7 +6446,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,6 +8044,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7802,16 +8064,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
